--- a/ANCASH.xlsx
+++ b/ANCASH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>0201: HUARAZ</t>
   </si>
@@ -136,13 +136,43 @@
   </si>
   <si>
     <t>  66.2</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>PIA</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>Certificación</t>
+  </si>
+  <si>
+    <t>Compromiso Anual</t>
+  </si>
+  <si>
+    <t>Ejecución</t>
+  </si>
+  <si>
+    <t>Avance %</t>
+  </si>
+  <si>
+    <t>Atención de Compromiso Mensual</t>
+  </si>
+  <si>
+    <t>Devengado</t>
+  </si>
+  <si>
+    <t>Girado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +319,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +513,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A6EA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -607,6 +650,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -652,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +775,33 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -991,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1008,146 +1141,130 @@
     <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>29762553</v>
-      </c>
-      <c r="C1" s="2">
-        <v>116697073</v>
-      </c>
-      <c r="D1" s="2">
-        <v>109864818</v>
-      </c>
-      <c r="E1" s="2">
-        <v>82945297</v>
-      </c>
-      <c r="F1" s="2">
-        <v>75226824</v>
-      </c>
-      <c r="G1" s="2">
-        <v>74875362</v>
-      </c>
-      <c r="H1" s="2">
-        <v>74853629</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2481328</v>
-      </c>
-      <c r="C2" s="5">
-        <v>12841236</v>
-      </c>
-      <c r="D2" s="5">
-        <v>11194023</v>
-      </c>
-      <c r="E2" s="5">
-        <v>9235208</v>
-      </c>
-      <c r="F2" s="5">
-        <v>9232018</v>
-      </c>
-      <c r="G2" s="5">
-        <v>9188228</v>
-      </c>
-      <c r="H2" s="5">
-        <v>9188228</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4355843</v>
-      </c>
-      <c r="C3" s="5">
-        <v>18946814</v>
-      </c>
-      <c r="D3" s="5">
-        <v>18143845</v>
-      </c>
-      <c r="E3" s="5">
-        <v>13605110</v>
-      </c>
-      <c r="F3" s="5">
-        <v>12838490</v>
-      </c>
-      <c r="G3" s="5">
-        <v>12834208</v>
-      </c>
-      <c r="H3" s="5">
-        <v>12756267</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>29762553</v>
+      </c>
+      <c r="C3" s="2">
+        <v>116697073</v>
+      </c>
+      <c r="D3" s="2">
+        <v>109864818</v>
+      </c>
+      <c r="E3" s="2">
+        <v>82945297</v>
+      </c>
+      <c r="F3" s="2">
+        <v>75226824</v>
+      </c>
+      <c r="G3" s="2">
+        <v>74875362</v>
+      </c>
+      <c r="H3" s="2">
+        <v>74853629</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>2159652</v>
+        <v>2481328</v>
       </c>
       <c r="C4" s="5">
-        <v>8499981</v>
+        <v>12841236</v>
       </c>
       <c r="D4" s="5">
-        <v>8046762</v>
+        <v>11194023</v>
       </c>
       <c r="E4" s="5">
-        <v>6216633</v>
+        <v>9235208</v>
       </c>
       <c r="F4" s="5">
-        <v>5404161</v>
+        <v>9232018</v>
       </c>
       <c r="G4" s="5">
-        <v>5404161</v>
+        <v>9188228</v>
       </c>
       <c r="H4" s="5">
-        <v>5345369</v>
+        <v>9188228</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>9345300</v>
+        <v>4355843</v>
       </c>
       <c r="C5" s="5">
-        <v>50830993</v>
+        <v>18946814</v>
       </c>
       <c r="D5" s="5">
-        <v>46128243</v>
+        <v>18143845</v>
       </c>
       <c r="E5" s="5">
-        <v>36089192</v>
+        <v>13605110</v>
       </c>
       <c r="F5" s="5">
-        <v>34518814</v>
+        <v>12838490</v>
       </c>
       <c r="G5" s="5">
-        <v>34414967</v>
+        <v>12834208</v>
       </c>
       <c r="H5" s="5">
-        <v>34400255</v>
+        <v>12756267</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>5</v>
@@ -1155,440 +1272,507 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>10194604</v>
+        <v>2159652</v>
       </c>
       <c r="C6" s="5">
-        <v>47293237</v>
+        <v>8499981</v>
       </c>
       <c r="D6" s="5">
-        <v>44438968</v>
+        <v>8046762</v>
       </c>
       <c r="E6" s="5">
-        <v>38176551</v>
+        <v>6216633</v>
       </c>
       <c r="F6" s="5">
-        <v>35958968</v>
+        <v>5404161</v>
       </c>
       <c r="G6" s="5">
-        <v>35750040</v>
+        <v>5404161</v>
       </c>
       <c r="H6" s="5">
-        <v>35631985</v>
+        <v>5345369</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
-        <v>7315892</v>
+        <v>9345300</v>
       </c>
       <c r="C7" s="5">
-        <v>34440730</v>
+        <v>50830993</v>
       </c>
       <c r="D7" s="5">
-        <v>33984424</v>
+        <v>46128243</v>
       </c>
       <c r="E7" s="5">
-        <v>30304874</v>
+        <v>36089192</v>
       </c>
       <c r="F7" s="5">
-        <v>29820673</v>
+        <v>34518814</v>
       </c>
       <c r="G7" s="5">
-        <v>29490666</v>
+        <v>34414967</v>
       </c>
       <c r="H7" s="5">
-        <v>29336072</v>
+        <v>34400255</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>8816577</v>
+        <v>10194604</v>
       </c>
       <c r="C8" s="5">
-        <v>32237543</v>
+        <v>47293237</v>
       </c>
       <c r="D8" s="5">
-        <v>27787923</v>
+        <v>44438968</v>
       </c>
       <c r="E8" s="5">
-        <v>21428039</v>
+        <v>38176551</v>
       </c>
       <c r="F8" s="5">
-        <v>21399600</v>
+        <v>35958968</v>
       </c>
       <c r="G8" s="5">
-        <v>21372366</v>
+        <v>35750040</v>
       </c>
       <c r="H8" s="5">
-        <v>21371822</v>
+        <v>35631985</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>1826445</v>
+        <v>7315892</v>
       </c>
       <c r="C9" s="5">
-        <v>8345570</v>
+        <v>34440730</v>
       </c>
       <c r="D9" s="5">
-        <v>7597502</v>
+        <v>33984424</v>
       </c>
       <c r="E9" s="5">
-        <v>6492981</v>
+        <v>30304874</v>
       </c>
       <c r="F9" s="5">
-        <v>6432332</v>
+        <v>29820673</v>
       </c>
       <c r="G9" s="5">
-        <v>6400522</v>
+        <v>29490666</v>
       </c>
       <c r="H9" s="5">
-        <v>6395177</v>
+        <v>29336072</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5">
-        <v>187655090</v>
+        <v>8816577</v>
       </c>
       <c r="C10" s="5">
-        <v>695283350</v>
+        <v>32237543</v>
       </c>
       <c r="D10" s="5">
-        <v>557347991</v>
+        <v>27787923</v>
       </c>
       <c r="E10" s="5">
-        <v>400366275</v>
+        <v>21428039</v>
       </c>
       <c r="F10" s="5">
-        <v>370814480</v>
+        <v>21399600</v>
       </c>
       <c r="G10" s="5">
-        <v>366034578</v>
+        <v>21372366</v>
       </c>
       <c r="H10" s="5">
-        <v>365749639</v>
+        <v>21371822</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>5824758</v>
+        <v>1826445</v>
       </c>
       <c r="C11" s="5">
-        <v>22051862</v>
+        <v>8345570</v>
       </c>
       <c r="D11" s="5">
-        <v>21217869</v>
+        <v>7597502</v>
       </c>
       <c r="E11" s="5">
-        <v>19806175</v>
+        <v>6492981</v>
       </c>
       <c r="F11" s="5">
-        <v>19057988</v>
+        <v>6432332</v>
       </c>
       <c r="G11" s="5">
-        <v>19042598</v>
+        <v>6400522</v>
       </c>
       <c r="H11" s="5">
-        <v>18185718</v>
+        <v>6395177</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5">
-        <v>18655246</v>
+        <v>187655090</v>
       </c>
       <c r="C12" s="5">
-        <v>63283298</v>
+        <v>695283350</v>
       </c>
       <c r="D12" s="5">
-        <v>57105227</v>
+        <v>557347991</v>
       </c>
       <c r="E12" s="5">
-        <v>45328388</v>
+        <v>400366275</v>
       </c>
       <c r="F12" s="5">
-        <v>38928513</v>
+        <v>370814480</v>
       </c>
       <c r="G12" s="5">
-        <v>38765071</v>
+        <v>366034578</v>
       </c>
       <c r="H12" s="5">
-        <v>38461791</v>
+        <v>365749639</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5">
-        <v>7683268</v>
+        <v>5824758</v>
       </c>
       <c r="C13" s="5">
-        <v>34098998</v>
+        <v>22051862</v>
       </c>
       <c r="D13" s="5">
-        <v>32272844</v>
+        <v>21217869</v>
       </c>
       <c r="E13" s="5">
-        <v>25822102</v>
+        <v>19806175</v>
       </c>
       <c r="F13" s="5">
-        <v>23245038</v>
+        <v>19057988</v>
       </c>
       <c r="G13" s="5">
-        <v>22968009</v>
+        <v>19042598</v>
       </c>
       <c r="H13" s="5">
-        <v>22943657</v>
+        <v>18185718</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5">
-        <v>3097582</v>
+        <v>18655246</v>
       </c>
       <c r="C14" s="5">
-        <v>29128185</v>
+        <v>63283298</v>
       </c>
       <c r="D14" s="5">
-        <v>27730657</v>
+        <v>57105227</v>
       </c>
       <c r="E14" s="5">
-        <v>19796571</v>
+        <v>45328388</v>
       </c>
       <c r="F14" s="5">
-        <v>15511757</v>
+        <v>38928513</v>
       </c>
       <c r="G14" s="5">
-        <v>15164077</v>
+        <v>38765071</v>
       </c>
       <c r="H14" s="5">
-        <v>14955596</v>
+        <v>38461791</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
-        <v>12071412</v>
+        <v>7683268</v>
       </c>
       <c r="C15" s="5">
-        <v>43457825</v>
+        <v>34098998</v>
       </c>
       <c r="D15" s="5">
-        <v>40327615</v>
+        <v>32272844</v>
       </c>
       <c r="E15" s="5">
-        <v>33109670</v>
+        <v>25822102</v>
       </c>
       <c r="F15" s="5">
-        <v>32637249</v>
+        <v>23245038</v>
       </c>
       <c r="G15" s="5">
-        <v>32583513</v>
+        <v>22968009</v>
       </c>
       <c r="H15" s="5">
-        <v>32562009</v>
+        <v>22943657</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5">
-        <v>8118472</v>
+        <v>3097582</v>
       </c>
       <c r="C16" s="5">
-        <v>33997791</v>
+        <v>29128185</v>
       </c>
       <c r="D16" s="5">
-        <v>31406324</v>
+        <v>27730657</v>
       </c>
       <c r="E16" s="5">
-        <v>21648210</v>
+        <v>19796571</v>
       </c>
       <c r="F16" s="5">
-        <v>20783514</v>
+        <v>15511757</v>
       </c>
       <c r="G16" s="5">
-        <v>20783514</v>
+        <v>15164077</v>
       </c>
       <c r="H16" s="5">
-        <v>20780470</v>
+        <v>14955596</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5">
-        <v>4799538</v>
+        <v>12071412</v>
       </c>
       <c r="C17" s="5">
-        <v>24596353</v>
+        <v>43457825</v>
       </c>
       <c r="D17" s="5">
-        <v>22520932</v>
+        <v>40327615</v>
       </c>
       <c r="E17" s="5">
-        <v>18084862</v>
+        <v>33109670</v>
       </c>
       <c r="F17" s="5">
-        <v>17814132</v>
+        <v>32637249</v>
       </c>
       <c r="G17" s="5">
-        <v>17728147</v>
+        <v>32583513</v>
       </c>
       <c r="H17" s="5">
-        <v>17688293</v>
+        <v>32562009</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5">
-        <v>64042216</v>
+        <v>8118472</v>
       </c>
       <c r="C18" s="5">
-        <v>251676934</v>
+        <v>33997791</v>
       </c>
       <c r="D18" s="5">
-        <v>214814751</v>
+        <v>31406324</v>
       </c>
       <c r="E18" s="5">
-        <v>144921665</v>
+        <v>21648210</v>
       </c>
       <c r="F18" s="5">
-        <v>129923375</v>
+        <v>20783514</v>
       </c>
       <c r="G18" s="5">
-        <v>129385177</v>
+        <v>20783514</v>
       </c>
       <c r="H18" s="5">
-        <v>129050351</v>
+        <v>20780470</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>8996553</v>
+        <v>4799538</v>
       </c>
       <c r="C19" s="5">
-        <v>37238053</v>
+        <v>24596353</v>
       </c>
       <c r="D19" s="5">
-        <v>33025868</v>
+        <v>22520932</v>
       </c>
       <c r="E19" s="5">
-        <v>29508482</v>
+        <v>18084862</v>
       </c>
       <c r="F19" s="5">
-        <v>27916626</v>
+        <v>17814132</v>
       </c>
       <c r="G19" s="5">
-        <v>27814425</v>
+        <v>17728147</v>
       </c>
       <c r="H19" s="5">
-        <v>27722552</v>
+        <v>17688293</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5">
+        <v>64042216</v>
+      </c>
+      <c r="C20" s="5">
+        <v>251676934</v>
+      </c>
+      <c r="D20" s="5">
+        <v>214814751</v>
+      </c>
+      <c r="E20" s="5">
+        <v>144921665</v>
+      </c>
+      <c r="F20" s="5">
+        <v>129923375</v>
+      </c>
+      <c r="G20" s="5">
+        <v>129385177</v>
+      </c>
+      <c r="H20" s="5">
+        <v>129050351</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8996553</v>
+      </c>
+      <c r="C21" s="5">
+        <v>37238053</v>
+      </c>
+      <c r="D21" s="5">
+        <v>33025868</v>
+      </c>
+      <c r="E21" s="5">
+        <v>29508482</v>
+      </c>
+      <c r="F21" s="5">
+        <v>27916626</v>
+      </c>
+      <c r="G21" s="5">
+        <v>27814425</v>
+      </c>
+      <c r="H21" s="5">
+        <v>27722552</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B22" s="5">
         <v>13154084</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C22" s="5">
         <v>59081069</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D22" s="5">
         <v>51565252</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E22" s="5">
         <v>43929940</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F22" s="5">
         <v>39121811</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G22" s="5">
         <v>39121580</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H22" s="5">
         <v>39107884</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>